--- a/automation/sourcecode/commons/interfaceReference/input/conf/interface_template.xlsx
+++ b/automation/sourcecode/commons/interfaceReference/input/conf/interface_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8325"/>
@@ -898,7 +898,7 @@
   <dimension ref="A1:AM351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -908,7 +908,7 @@
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="120.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
     <col min="6" max="14" width="30.7109375" customWidth="1"/>
     <col min="15" max="39" width="25.7109375" customWidth="1"/>
